--- a/Module - Chuyen de chuyen muc 3d/Phieu nb chuyen de.xlsx
+++ b/Module - Chuyen de chuyen muc 3d/Phieu nb chuyen de.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Workspace\Quan ly nhuan but\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Quanlynhuanbut\Module - Chuyen de chuyen muc 3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC22D4CC-E98F-4212-AC28-34BF325F0207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB72F761-63D5-4981-9A74-E2A0B125A2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A61451C5-7E03-4C11-9BC4-DC6EA17123DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{A61451C5-7E03-4C11-9BC4-DC6EA17123DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAU-CD-MOI" sheetId="8" r:id="rId1"/>
-    <sheet name="data" sheetId="7" r:id="rId2"/>
+    <sheet name="data" sheetId="7" state="hidden" r:id="rId1"/>
+    <sheet name="MAU-CD-MOI" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>PHIẾU NHUẬN BÚT CHUYÊN ĐỀ/ CHUYÊN MỤC</t>
   </si>
@@ -72,15 +72,6 @@
     <t>Ghép nhạc</t>
   </si>
   <si>
-    <t xml:space="preserve">Đồ họa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổ chức sản xuất </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổ chức thực hiện </t>
-  </si>
-  <si>
     <t>Truyền thông số</t>
   </si>
   <si>
@@ -202,6 +193,24 @@
   </si>
   <si>
     <t>%(+/-)</t>
+  </si>
+  <si>
+    <t>…...................................................</t>
+  </si>
+  <si>
+    <t>Chỉ đạo nội dung</t>
+  </si>
+  <si>
+    <t>Đồ họa</t>
+  </si>
+  <si>
+    <t>Tổ chức sản xuất</t>
+  </si>
+  <si>
+    <t>Tổ chức thực hiện</t>
+  </si>
+  <si>
+    <t>Người lập:</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -543,6 +552,9 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -985,1161 +997,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F07566-9880-47B8-8DF8-B1E711B15735}">
-  <dimension ref="A4:F1048544"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="11" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="38">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B12,data!$E$5:$E$21,0),MATCH(C12,data!$F$4:$O$4,0))*(1+D12/100),"")</f>
-        <v>147000</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B13,data!$E$5:$E$21,0),MATCH(C13,data!$F$4:$O$4,0))*(1+D13/100),"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B14,data!$E$5:$E$21,0),MATCH(C14,data!$F$4:$O$4,0))*(1+D14/100),"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B15,data!$E$5:$E$21,0),MATCH(C15,data!$F$4:$O$4,0))*(1+D15/100),"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B16,data!$E$5:$E$21,0),MATCH(C16,data!$F$4:$O$4,0))*(1+D16/100),"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B17,data!$E$5:$E$21,0),MATCH(C17,data!$F$4:$O$4,0))*(1+D17/100),"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B18,data!$E$5:$E$21,0),MATCH(C18,data!$F$4:$O$4,0))*(1+D18/100),"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B19,data!$E$5:$E$21,0),MATCH(C19,data!$F$4:$O$4,0))*(1+D19/100),"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B20,data!$E$5:$E$21,0),MATCH(C20,data!$F$4:$O$4,0))*(1+D20/100),"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B21,data!$E$5:$E$21,0),MATCH(C21,data!$F$4:$O$4,0))*(1+D21/100),"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B22,data!$E$5:$E$21,0),MATCH(C22,data!$F$4:$O$4,0))*(1+D22/100),"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B23,data!$E$5:$E$21,0),MATCH(C23,data!$F$4:$O$4,0))*(1+D23/100),"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B24,data!$E$5:$E$21,0),MATCH(C24,data!$F$4:$O$4,0))*(1+D24/100),"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B25,data!$E$5:$E$21,0),MATCH(C25,data!$F$4:$O$4,0))*(1+D25/100),"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B26,data!$E$5:$E$21,0),MATCH(C26,data!$F$4:$O$4,0))*(1+D26/100),"")</f>
-        <v/>
-      </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B27,data!$E$5:$E$21,0),MATCH(C27,data!$F$4:$O$4,0))*(1+D27/100),"")</f>
-        <v/>
-      </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B28,data!$E$5:$E$21,0),MATCH(C28,data!$F$4:$O$4,0))*(1+D28/100),"")</f>
-        <v/>
-      </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="38" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B29,data!$E$5:$E$21,0),MATCH(C29,data!$F$4:$O$4,0))*(1+D29/100),"")</f>
-        <v/>
-      </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B30,data!$E$5:$E$21,0),MATCH(C30,data!$F$4:$O$4,0))*(1+D30/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B31,data!$E$5:$E$21,0),MATCH(C31,data!$F$4:$O$4,0))*(1+D31/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B32,data!$E$5:$E$21,0),MATCH(C32,data!$F$4:$O$4,0))*(1+D32/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B33,data!$E$5:$E$21,0),MATCH(C33,data!$F$4:$O$4,0))*(1+D33/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B34,data!$E$5:$E$21,0),MATCH(C34,data!$F$4:$O$4,0))*(1+D34/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B35,data!$E$5:$E$21,0),MATCH(C35,data!$F$4:$O$4,0))*(1+D35/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B36,data!$E$5:$E$21,0),MATCH(C36,data!$F$4:$O$4,0))*(1+D36/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B37,data!$E$5:$E$21,0),MATCH(C37,data!$F$4:$O$4,0))*(1+D37/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B38,data!$E$5:$E$21,0),MATCH(C38,data!$F$4:$O$4,0))*(1+D38/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B39,data!$E$5:$E$21,0),MATCH(C39,data!$F$4:$O$4,0))*(1+D39/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B40,data!$E$5:$E$21,0),MATCH(C40,data!$F$4:$O$4,0))*(1+D40/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B41,data!$E$5:$E$21,0),MATCH(C41,data!$F$4:$O$4,0))*(1+D41/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B42,data!$E$5:$E$21,0),MATCH(C42,data!$F$4:$O$4,0))*(1+D42/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B43,data!$E$5:$E$21,0),MATCH(C43,data!$F$4:$O$4,0))*(1+D43/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B44,data!$E$5:$E$21,0),MATCH(C44,data!$F$4:$O$4,0))*(1+D44/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B45,data!$E$5:$E$21,0),MATCH(C45,data!$F$4:$O$4,0))*(1+D45/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B46,data!$E$5:$E$21,0),MATCH(C46,data!$F$4:$O$4,0))*(1+D46/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B47,data!$E$5:$E$21,0),MATCH(C47,data!$F$4:$O$4,0))*(1+D47/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B48,data!$E$5:$E$21,0),MATCH(C48,data!$F$4:$O$4,0))*(1+D48/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B49,data!$E$5:$E$21,0),MATCH(C49,data!$F$4:$O$4,0))*(1+D49/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B50,data!$E$5:$E$21,0),MATCH(C50,data!$F$4:$O$4,0))*(1+D50/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B51,data!$E$5:$E$21,0),MATCH(C51,data!$F$4:$O$4,0))*(1+D51/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B52,data!$E$5:$E$21,0),MATCH(C52,data!$F$4:$O$4,0))*(1+D52/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B53,data!$E$5:$E$21,0),MATCH(C53,data!$F$4:$O$4,0))*(1+D53/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B54,data!$E$5:$E$21,0),MATCH(C54,data!$F$4:$O$4,0))*(1+D54/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B55,data!$E$5:$E$21,0),MATCH(C55,data!$F$4:$O$4,0))*(1+D55/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B56,data!$E$5:$E$21,0),MATCH(C56,data!$F$4:$O$4,0))*(1+D56/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B57,data!$E$5:$E$21,0),MATCH(C57,data!$F$4:$O$4,0))*(1+D57/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B58,data!$E$5:$E$21,0),MATCH(C58,data!$F$4:$O$4,0))*(1+D58/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B59,data!$E$5:$E$21,0),MATCH(C59,data!$F$4:$O$4,0))*(1+D59/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B60,data!$E$5:$E$21,0),MATCH(C60,data!$F$4:$O$4,0))*(1+D60/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B61,data!$E$5:$E$21,0),MATCH(C61,data!$F$4:$O$4,0))*(1+D61/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B62,data!$E$5:$E$21,0),MATCH(C62,data!$F$4:$O$4,0))*(1+D62/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B63,data!$E$5:$E$21,0),MATCH(C63,data!$F$4:$O$4,0))*(1+D63/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B64,data!$E$5:$E$21,0),MATCH(C64,data!$F$4:$O$4,0))*(1+D64/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B65,data!$E$5:$E$21,0),MATCH(C65,data!$F$4:$O$4,0))*(1+D65/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B66,data!$E$5:$E$21,0),MATCH(C66,data!$F$4:$O$4,0))*(1+D66/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B67,data!$E$5:$E$21,0),MATCH(C67,data!$F$4:$O$4,0))*(1+D67/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B68,data!$E$5:$E$21,0),MATCH(C68,data!$F$4:$O$4,0))*(1+D68/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B69,data!$E$5:$E$21,0),MATCH(C69,data!$F$4:$O$4,0))*(1+D69/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B70,data!$E$5:$E$21,0),MATCH(C70,data!$F$4:$O$4,0))*(1+D70/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B71,data!$E$5:$E$21,0),MATCH(C71,data!$F$4:$O$4,0))*(1+D71/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B72,data!$E$5:$E$21,0),MATCH(C72,data!$F$4:$O$4,0))*(1+D72/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B73,data!$E$5:$E$21,0),MATCH(C73,data!$F$4:$O$4,0))*(1+D73/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B74,data!$E$5:$E$21,0),MATCH(C74,data!$F$4:$O$4,0))*(1+D74/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B75,data!$E$5:$E$21,0),MATCH(C75,data!$F$4:$O$4,0))*(1+D75/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B76,data!$E$5:$E$21,0),MATCH(C76,data!$F$4:$O$4,0))*(1+D76/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B77,data!$E$5:$E$21,0),MATCH(C77,data!$F$4:$O$4,0))*(1+D77/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B78,data!$E$5:$E$21,0),MATCH(C78,data!$F$4:$O$4,0))*(1+D78/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B79,data!$E$5:$E$21,0),MATCH(C79,data!$F$4:$O$4,0))*(1+D79/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B80,data!$E$5:$E$21,0),MATCH(C80,data!$F$4:$O$4,0))*(1+D80/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B81,data!$E$5:$E$21,0),MATCH(C81,data!$F$4:$O$4,0))*(1+D81/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B82,data!$E$5:$E$21,0),MATCH(C82,data!$F$4:$O$4,0))*(1+D82/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B83,data!$E$5:$E$21,0),MATCH(C83,data!$F$4:$O$4,0))*(1+D83/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B84,data!$E$5:$E$21,0),MATCH(C84,data!$F$4:$O$4,0))*(1+D84/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B85,data!$E$5:$E$21,0),MATCH(C85,data!$F$4:$O$4,0))*(1+D85/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B86,data!$E$5:$E$21,0),MATCH(C86,data!$F$4:$O$4,0))*(1+D86/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B87,data!$E$5:$E$21,0),MATCH(C87,data!$F$4:$O$4,0))*(1+D87/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B88,data!$E$5:$E$21,0),MATCH(C88,data!$F$4:$O$4,0))*(1+D88/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B89,data!$E$5:$E$21,0),MATCH(C89,data!$F$4:$O$4,0))*(1+D89/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B90,data!$E$5:$E$21,0),MATCH(C90,data!$F$4:$O$4,0))*(1+D90/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B91,data!$E$5:$E$21,0),MATCH(C91,data!$F$4:$O$4,0))*(1+D91/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B92,data!$E$5:$E$21,0),MATCH(C92,data!$F$4:$O$4,0))*(1+D92/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B93,data!$E$5:$E$21,0),MATCH(C93,data!$F$4:$O$4,0))*(1+D93/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B94,data!$E$5:$E$21,0),MATCH(C94,data!$F$4:$O$4,0))*(1+D94/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B95,data!$E$5:$E$21,0),MATCH(C95,data!$F$4:$O$4,0))*(1+D95/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B96,data!$E$5:$E$21,0),MATCH(C96,data!$F$4:$O$4,0))*(1+D96/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B97,data!$E$5:$E$21,0),MATCH(C97,data!$F$4:$O$4,0))*(1+D97/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B98,data!$E$5:$E$21,0),MATCH(C98,data!$F$4:$O$4,0))*(1+D98/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B99,data!$E$5:$E$21,0),MATCH(C99,data!$F$4:$O$4,0))*(1+D99/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B100,data!$E$5:$E$21,0),MATCH(C100,data!$F$4:$O$4,0))*(1+D100/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B101,data!$E$5:$E$21,0),MATCH(C101,data!$F$4:$O$4,0))*(1+D101/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B102,data!$E$5:$E$21,0),MATCH(C102,data!$F$4:$O$4,0))*(1+D102/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B103,data!$E$5:$E$21,0),MATCH(C103,data!$F$4:$O$4,0))*(1+D103/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B104,data!$E$5:$E$21,0),MATCH(C104,data!$F$4:$O$4,0))*(1+D104/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B105,data!$E$5:$E$21,0),MATCH(C105,data!$F$4:$O$4,0))*(1+D105/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B106,data!$E$5:$E$21,0),MATCH(C106,data!$F$4:$O$4,0))*(1+D106/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B107,data!$E$5:$E$21,0),MATCH(C107,data!$F$4:$O$4,0))*(1+D107/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B108,data!$E$5:$E$21,0),MATCH(C108,data!$F$4:$O$4,0))*(1+D108/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B109,data!$E$5:$E$21,0),MATCH(C109,data!$F$4:$O$4,0))*(1+D109/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B110,data!$E$5:$E$21,0),MATCH(C110,data!$F$4:$O$4,0))*(1+D110/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B111,data!$E$5:$E$21,0),MATCH(C111,data!$F$4:$O$4,0))*(1+D111/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B112,data!$E$5:$E$21,0),MATCH(C112,data!$F$4:$O$4,0))*(1+D112/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B113,data!$E$5:$E$21,0),MATCH(C113,data!$F$4:$O$4,0))*(1+D113/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B114,data!$E$5:$E$21,0),MATCH(C114,data!$F$4:$O$4,0))*(1+D114/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B115,data!$E$5:$E$21,0),MATCH(C115,data!$F$4:$O$4,0))*(1+D115/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B116,data!$E$5:$E$21,0),MATCH(C116,data!$F$4:$O$4,0))*(1+D116/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B117,data!$E$5:$E$21,0),MATCH(C117,data!$F$4:$O$4,0))*(1+D117/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B118,data!$E$5:$E$21,0),MATCH(C118,data!$F$4:$O$4,0))*(1+D118/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B119,data!$E$5:$E$21,0),MATCH(C119,data!$F$4:$O$4,0))*(1+D119/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B120,data!$E$5:$E$21,0),MATCH(C120,data!$F$4:$O$4,0))*(1+D120/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B121,data!$E$5:$E$21,0),MATCH(C121,data!$F$4:$O$4,0))*(1+D121/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B122,data!$E$5:$E$21,0),MATCH(C122,data!$F$4:$O$4,0))*(1+D122/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B123,data!$E$5:$E$21,0),MATCH(C123,data!$F$4:$O$4,0))*(1+D123/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B124,data!$E$5:$E$21,0),MATCH(C124,data!$F$4:$O$4,0))*(1+D124/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B125,data!$E$5:$E$21,0),MATCH(C125,data!$F$4:$O$4,0))*(1+D125/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B126,data!$E$5:$E$21,0),MATCH(C126,data!$F$4:$O$4,0))*(1+D126/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B127,data!$E$5:$E$21,0),MATCH(C127,data!$F$4:$O$4,0))*(1+D127/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B128,data!$E$5:$E$21,0),MATCH(C128,data!$F$4:$O$4,0))*(1+D128/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B129,data!$E$5:$E$21,0),MATCH(C129,data!$F$4:$O$4,0))*(1+D129/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B130,data!$E$5:$E$21,0),MATCH(C130,data!$F$4:$O$4,0))*(1+D130/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B131,data!$E$5:$E$21,0),MATCH(C131,data!$F$4:$O$4,0))*(1+D131/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B132,data!$E$5:$E$21,0),MATCH(C132,data!$F$4:$O$4,0))*(1+D132/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B133,data!$E$5:$E$21,0),MATCH(C133,data!$F$4:$O$4,0))*(1+D133/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B134,data!$E$5:$E$21,0),MATCH(C134,data!$F$4:$O$4,0))*(1+D134/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B135,data!$E$5:$E$21,0),MATCH(C135,data!$F$4:$O$4,0))*(1+D135/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B136,data!$E$5:$E$21,0),MATCH(C136,data!$F$4:$O$4,0))*(1+D136/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B137,data!$E$5:$E$21,0),MATCH(C137,data!$F$4:$O$4,0))*(1+D137/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B138,data!$E$5:$E$21,0),MATCH(C138,data!$F$4:$O$4,0))*(1+D138/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B139,data!$E$5:$E$21,0),MATCH(C139,data!$F$4:$O$4,0))*(1+D139/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B140,data!$E$5:$E$21,0),MATCH(C140,data!$F$4:$O$4,0))*(1+D140/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B141,data!$E$5:$E$21,0),MATCH(C141,data!$F$4:$O$4,0))*(1+D141/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B142,data!$E$5:$E$21,0),MATCH(C142,data!$F$4:$O$4,0))*(1+D142/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B143,data!$E$5:$E$21,0),MATCH(C143,data!$F$4:$O$4,0))*(1+D143/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B144,data!$E$5:$E$21,0),MATCH(C144,data!$F$4:$O$4,0))*(1+D144/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B145,data!$E$5:$E$21,0),MATCH(C145,data!$F$4:$O$4,0))*(1+D145/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B146,data!$E$5:$E$21,0),MATCH(C146,data!$F$4:$O$4,0))*(1+D146/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B147,data!$E$5:$E$21,0),MATCH(C147,data!$F$4:$O$4,0))*(1+D147/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B148,data!$E$5:$E$21,0),MATCH(C148,data!$F$4:$O$4,0))*(1+D148/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B149,data!$E$5:$E$21,0),MATCH(C149,data!$F$4:$O$4,0))*(1+D149/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B150,data!$E$5:$E$21,0),MATCH(C150,data!$F$4:$O$4,0))*(1+D150/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B151,data!$E$5:$E$21,0),MATCH(C151,data!$F$4:$O$4,0))*(1+D151/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B152,data!$E$5:$E$21,0),MATCH(C152,data!$F$4:$O$4,0))*(1+D152/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B153,data!$E$5:$E$21,0),MATCH(C153,data!$F$4:$O$4,0))*(1+D153/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B154,data!$E$5:$E$21,0),MATCH(C154,data!$F$4:$O$4,0))*(1+D154/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B155,data!$E$5:$E$21,0),MATCH(C155,data!$F$4:$O$4,0))*(1+D155/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B156,data!$E$5:$E$21,0),MATCH(C156,data!$F$4:$O$4,0))*(1+D156/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" s="1" t="str">
-        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(B157,data!$E$5:$E$21,0),MATCH(C157,data!$F$4:$O$4,0))*(1+D157/100),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" s="1"/>
-    </row>
-    <row r="1048544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <conditionalFormatting sqref="A11:F1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>"a1&lt;&gt;"""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Chua nhap nguoi thuc hien" error="!" xr:uid="{6F58CECD-138B-4FCD-9138-B2F6EF459F00}">
-          <x14:formula1>
-            <xm:f>data!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>A12:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Chưa nhap chuc danh" error="!" xr:uid="{6E9B728D-FE92-4EF3-AA94-63905A38AF2C}">
-          <x14:formula1>
-            <xm:f>data!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>B12:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FE7CB-9E6F-4C1C-8B0A-E9C4D9136751}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G46" sqref="G23:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +1016,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2161,35 +1024,35 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -2225,13 +1088,13 @@
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F5" s="19">
         <v>147000</v>
@@ -2267,10 +1130,10 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" s="19">
         <v>98000</v>
@@ -2306,7 +1169,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>6</v>
@@ -2345,7 +1208,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>7</v>
@@ -2384,7 +1247,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>8</v>
@@ -2423,10 +1286,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="19">
         <v>344000</v>
@@ -2462,10 +1325,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" s="19">
         <v>245000</v>
@@ -2501,10 +1364,10 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="19">
         <v>49000</v>
@@ -2540,10 +1403,10 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="19">
         <v>73000</v>
@@ -2579,10 +1442,10 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="19">
         <v>196000</v>
@@ -2621,7 +1484,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F15" s="19">
         <v>98000</v>
@@ -2696,7 +1559,7 @@
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>10</v>
@@ -2735,10 +1598,10 @@
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F18" s="21">
         <v>98000</v>
@@ -2774,10 +1637,10 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F19" s="19">
         <v>147000</v>
@@ -2813,10 +1676,10 @@
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F20" s="19">
         <v>147000</v>
@@ -2852,10 +1715,10 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21" s="23">
         <v>98000</v>
@@ -2890,7 +1753,7 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2910,39 +1773,39 @@
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6X/awH3QEbS4wXup/mjHoW8pHsdXaBzW8tj3+5axH+A2TNzz6iGJuQeo4meHCqjalKUc2Npz5M3SzHBZX1fvRA==" saltValue="ht3G65xXiwLlSE8ERQiFOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="loynbFcZpRldieGbxSZg/CNpKM27XTPdx9uCOaZ5iFkfPiCX03JH4+GVFdI9LtJFTaayFzYjISOfO/E7eR7xAg==" saltValue="DfiovivUkA7l10NDcM0PZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>"a1&lt;&gt;"""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>"a1&lt;&gt;"""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>"a1&lt;&gt;"""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>"a1&lt;&gt;"""""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2953,4 +1816,1183 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F07566-9880-47B8-8DF8-B1E711B15735}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:F1048544"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A12,data!$E$5:$E$21,0),MATCH(C12,data!$F$4:$O$4,0))*(1+D12/100),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A13,data!$E$5:$E$21,0),MATCH(C13,data!$F$4:$O$4,0))*(1+D13/100),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A14,data!$E$5:$E$21,0),MATCH(C14,data!$F$4:$O$4,0))*(1+D14/100),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A15,data!$E$5:$E$21,0),MATCH(C15,data!$F$4:$O$4,0))*(1+D15/100),"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A16,data!$E$5:$E$21,0),MATCH(C16,data!$F$4:$O$4,0))*(1+D16/100),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A17,data!$E$5:$E$21,0),MATCH(C17,data!$F$4:$O$4,0))*(1+D17/100),"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A18,data!$E$5:$E$21,0),MATCH(C18,data!$F$4:$O$4,0))*(1+D18/100),"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A19,data!$E$5:$E$21,0),MATCH(C19,data!$F$4:$O$4,0))*(1+D19/100),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A20,data!$E$5:$E$21,0),MATCH(C20,data!$F$4:$O$4,0))*(1+D20/100),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A21,data!$E$5:$E$21,0),MATCH(C21,data!$F$4:$O$4,0))*(1+D21/100),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A22,data!$E$5:$E$21,0),MATCH(C22,data!$F$4:$O$4,0))*(1+D22/100),"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A23,data!$E$5:$E$21,0),MATCH(C23,data!$F$4:$O$4,0))*(1+D23/100),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A24,data!$E$5:$E$21,0),MATCH(C24,data!$F$4:$O$4,0))*(1+D24/100),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A25,data!$E$5:$E$21,0),MATCH(C25,data!$F$4:$O$4,0))*(1+D25/100),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A26,data!$E$5:$E$21,0),MATCH(C26,data!$F$4:$O$4,0))*(1+D26/100),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A27,data!$E$5:$E$21,0),MATCH(C27,data!$F$4:$O$4,0))*(1+D27/100),"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A28,data!$E$5:$E$21,0),MATCH(C28,data!$F$4:$O$4,0))*(1+D28/100),"")</f>
+        <v/>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="38" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A29,data!$E$5:$E$21,0),MATCH(C29,data!$F$4:$O$4,0))*(1+D29/100),"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A30,data!$E$5:$E$21,0),MATCH(C30,data!$F$4:$O$4,0))*(1+D30/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A31,data!$E$5:$E$21,0),MATCH(C31,data!$F$4:$O$4,0))*(1+D31/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A32,data!$E$5:$E$21,0),MATCH(C32,data!$F$4:$O$4,0))*(1+D32/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A33,data!$E$5:$E$21,0),MATCH(C33,data!$F$4:$O$4,0))*(1+D33/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A34,data!$E$5:$E$21,0),MATCH(C34,data!$F$4:$O$4,0))*(1+D34/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A35,data!$E$5:$E$21,0),MATCH(C35,data!$F$4:$O$4,0))*(1+D35/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A36,data!$E$5:$E$21,0),MATCH(C36,data!$F$4:$O$4,0))*(1+D36/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A37,data!$E$5:$E$21,0),MATCH(C37,data!$F$4:$O$4,0))*(1+D37/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A38,data!$E$5:$E$21,0),MATCH(C38,data!$F$4:$O$4,0))*(1+D38/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A39,data!$E$5:$E$21,0),MATCH(C39,data!$F$4:$O$4,0))*(1+D39/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A40,data!$E$5:$E$21,0),MATCH(C40,data!$F$4:$O$4,0))*(1+D40/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A41,data!$E$5:$E$21,0),MATCH(C41,data!$F$4:$O$4,0))*(1+D41/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A42,data!$E$5:$E$21,0),MATCH(C42,data!$F$4:$O$4,0))*(1+D42/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A43,data!$E$5:$E$21,0),MATCH(C43,data!$F$4:$O$4,0))*(1+D43/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A44,data!$E$5:$E$21,0),MATCH(C44,data!$F$4:$O$4,0))*(1+D44/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A45,data!$E$5:$E$21,0),MATCH(C45,data!$F$4:$O$4,0))*(1+D45/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A46,data!$E$5:$E$21,0),MATCH(C46,data!$F$4:$O$4,0))*(1+D46/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A47,data!$E$5:$E$21,0),MATCH(C47,data!$F$4:$O$4,0))*(1+D47/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A48,data!$E$5:$E$21,0),MATCH(C48,data!$F$4:$O$4,0))*(1+D48/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A49,data!$E$5:$E$21,0),MATCH(C49,data!$F$4:$O$4,0))*(1+D49/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A50,data!$E$5:$E$21,0),MATCH(C50,data!$F$4:$O$4,0))*(1+D50/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A51,data!$E$5:$E$21,0),MATCH(C51,data!$F$4:$O$4,0))*(1+D51/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A52,data!$E$5:$E$21,0),MATCH(C52,data!$F$4:$O$4,0))*(1+D52/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A53,data!$E$5:$E$21,0),MATCH(C53,data!$F$4:$O$4,0))*(1+D53/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A54,data!$E$5:$E$21,0),MATCH(C54,data!$F$4:$O$4,0))*(1+D54/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A55,data!$E$5:$E$21,0),MATCH(C55,data!$F$4:$O$4,0))*(1+D55/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A56,data!$E$5:$E$21,0),MATCH(C56,data!$F$4:$O$4,0))*(1+D56/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A57,data!$E$5:$E$21,0),MATCH(C57,data!$F$4:$O$4,0))*(1+D57/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A58,data!$E$5:$E$21,0),MATCH(C58,data!$F$4:$O$4,0))*(1+D58/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A59,data!$E$5:$E$21,0),MATCH(C59,data!$F$4:$O$4,0))*(1+D59/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A60,data!$E$5:$E$21,0),MATCH(C60,data!$F$4:$O$4,0))*(1+D60/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A61,data!$E$5:$E$21,0),MATCH(C61,data!$F$4:$O$4,0))*(1+D61/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A62,data!$E$5:$E$21,0),MATCH(C62,data!$F$4:$O$4,0))*(1+D62/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A63,data!$E$5:$E$21,0),MATCH(C63,data!$F$4:$O$4,0))*(1+D63/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A64,data!$E$5:$E$21,0),MATCH(C64,data!$F$4:$O$4,0))*(1+D64/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A65,data!$E$5:$E$21,0),MATCH(C65,data!$F$4:$O$4,0))*(1+D65/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A66,data!$E$5:$E$21,0),MATCH(C66,data!$F$4:$O$4,0))*(1+D66/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A67,data!$E$5:$E$21,0),MATCH(C67,data!$F$4:$O$4,0))*(1+D67/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A68,data!$E$5:$E$21,0),MATCH(C68,data!$F$4:$O$4,0))*(1+D68/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A69,data!$E$5:$E$21,0),MATCH(C69,data!$F$4:$O$4,0))*(1+D69/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A70,data!$E$5:$E$21,0),MATCH(C70,data!$F$4:$O$4,0))*(1+D70/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A71,data!$E$5:$E$21,0),MATCH(C71,data!$F$4:$O$4,0))*(1+D71/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A72,data!$E$5:$E$21,0),MATCH(C72,data!$F$4:$O$4,0))*(1+D72/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A73,data!$E$5:$E$21,0),MATCH(C73,data!$F$4:$O$4,0))*(1+D73/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A74,data!$E$5:$E$21,0),MATCH(C74,data!$F$4:$O$4,0))*(1+D74/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A75,data!$E$5:$E$21,0),MATCH(C75,data!$F$4:$O$4,0))*(1+D75/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A76,data!$E$5:$E$21,0),MATCH(C76,data!$F$4:$O$4,0))*(1+D76/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A77,data!$E$5:$E$21,0),MATCH(C77,data!$F$4:$O$4,0))*(1+D77/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A78,data!$E$5:$E$21,0),MATCH(C78,data!$F$4:$O$4,0))*(1+D78/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A79,data!$E$5:$E$21,0),MATCH(C79,data!$F$4:$O$4,0))*(1+D79/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A80,data!$E$5:$E$21,0),MATCH(C80,data!$F$4:$O$4,0))*(1+D80/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A81,data!$E$5:$E$21,0),MATCH(C81,data!$F$4:$O$4,0))*(1+D81/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A82,data!$E$5:$E$21,0),MATCH(C82,data!$F$4:$O$4,0))*(1+D82/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A83,data!$E$5:$E$21,0),MATCH(C83,data!$F$4:$O$4,0))*(1+D83/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A84,data!$E$5:$E$21,0),MATCH(C84,data!$F$4:$O$4,0))*(1+D84/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A85,data!$E$5:$E$21,0),MATCH(C85,data!$F$4:$O$4,0))*(1+D85/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A86,data!$E$5:$E$21,0),MATCH(C86,data!$F$4:$O$4,0))*(1+D86/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A87,data!$E$5:$E$21,0),MATCH(C87,data!$F$4:$O$4,0))*(1+D87/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A88,data!$E$5:$E$21,0),MATCH(C88,data!$F$4:$O$4,0))*(1+D88/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A89,data!$E$5:$E$21,0),MATCH(C89,data!$F$4:$O$4,0))*(1+D89/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A90,data!$E$5:$E$21,0),MATCH(C90,data!$F$4:$O$4,0))*(1+D90/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A91,data!$E$5:$E$21,0),MATCH(C91,data!$F$4:$O$4,0))*(1+D91/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A92,data!$E$5:$E$21,0),MATCH(C92,data!$F$4:$O$4,0))*(1+D92/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A93,data!$E$5:$E$21,0),MATCH(C93,data!$F$4:$O$4,0))*(1+D93/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A94,data!$E$5:$E$21,0),MATCH(C94,data!$F$4:$O$4,0))*(1+D94/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A95,data!$E$5:$E$21,0),MATCH(C95,data!$F$4:$O$4,0))*(1+D95/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A96,data!$E$5:$E$21,0),MATCH(C96,data!$F$4:$O$4,0))*(1+D96/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A97,data!$E$5:$E$21,0),MATCH(C97,data!$F$4:$O$4,0))*(1+D97/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A98,data!$E$5:$E$21,0),MATCH(C98,data!$F$4:$O$4,0))*(1+D98/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A99,data!$E$5:$E$21,0),MATCH(C99,data!$F$4:$O$4,0))*(1+D99/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A100,data!$E$5:$E$21,0),MATCH(C100,data!$F$4:$O$4,0))*(1+D100/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A101,data!$E$5:$E$21,0),MATCH(C101,data!$F$4:$O$4,0))*(1+D101/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A102,data!$E$5:$E$21,0),MATCH(C102,data!$F$4:$O$4,0))*(1+D102/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A103,data!$E$5:$E$21,0),MATCH(C103,data!$F$4:$O$4,0))*(1+D103/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A104,data!$E$5:$E$21,0),MATCH(C104,data!$F$4:$O$4,0))*(1+D104/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A105,data!$E$5:$E$21,0),MATCH(C105,data!$F$4:$O$4,0))*(1+D105/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A106,data!$E$5:$E$21,0),MATCH(C106,data!$F$4:$O$4,0))*(1+D106/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A107,data!$E$5:$E$21,0),MATCH(C107,data!$F$4:$O$4,0))*(1+D107/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A108,data!$E$5:$E$21,0),MATCH(C108,data!$F$4:$O$4,0))*(1+D108/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A109,data!$E$5:$E$21,0),MATCH(C109,data!$F$4:$O$4,0))*(1+D109/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A110,data!$E$5:$E$21,0),MATCH(C110,data!$F$4:$O$4,0))*(1+D110/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A111,data!$E$5:$E$21,0),MATCH(C111,data!$F$4:$O$4,0))*(1+D111/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A112,data!$E$5:$E$21,0),MATCH(C112,data!$F$4:$O$4,0))*(1+D112/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A113,data!$E$5:$E$21,0),MATCH(C113,data!$F$4:$O$4,0))*(1+D113/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A114,data!$E$5:$E$21,0),MATCH(C114,data!$F$4:$O$4,0))*(1+D114/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A115,data!$E$5:$E$21,0),MATCH(C115,data!$F$4:$O$4,0))*(1+D115/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A116,data!$E$5:$E$21,0),MATCH(C116,data!$F$4:$O$4,0))*(1+D116/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A117,data!$E$5:$E$21,0),MATCH(C117,data!$F$4:$O$4,0))*(1+D117/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A118,data!$E$5:$E$21,0),MATCH(C118,data!$F$4:$O$4,0))*(1+D118/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A119,data!$E$5:$E$21,0),MATCH(C119,data!$F$4:$O$4,0))*(1+D119/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A120,data!$E$5:$E$21,0),MATCH(C120,data!$F$4:$O$4,0))*(1+D120/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A121,data!$E$5:$E$21,0),MATCH(C121,data!$F$4:$O$4,0))*(1+D121/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A122,data!$E$5:$E$21,0),MATCH(C122,data!$F$4:$O$4,0))*(1+D122/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A123,data!$E$5:$E$21,0),MATCH(C123,data!$F$4:$O$4,0))*(1+D123/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E124" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A124,data!$E$5:$E$21,0),MATCH(C124,data!$F$4:$O$4,0))*(1+D124/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E125" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A125,data!$E$5:$E$21,0),MATCH(C125,data!$F$4:$O$4,0))*(1+D125/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E126" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A126,data!$E$5:$E$21,0),MATCH(C126,data!$F$4:$O$4,0))*(1+D126/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E127" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A127,data!$E$5:$E$21,0),MATCH(C127,data!$F$4:$O$4,0))*(1+D127/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E128" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A128,data!$E$5:$E$21,0),MATCH(C128,data!$F$4:$O$4,0))*(1+D128/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E129" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A129,data!$E$5:$E$21,0),MATCH(C129,data!$F$4:$O$4,0))*(1+D129/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E130" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A130,data!$E$5:$E$21,0),MATCH(C130,data!$F$4:$O$4,0))*(1+D130/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E131" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A131,data!$E$5:$E$21,0),MATCH(C131,data!$F$4:$O$4,0))*(1+D131/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E132" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A132,data!$E$5:$E$21,0),MATCH(C132,data!$F$4:$O$4,0))*(1+D132/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E133" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A133,data!$E$5:$E$21,0),MATCH(C133,data!$F$4:$O$4,0))*(1+D133/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E134" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A134,data!$E$5:$E$21,0),MATCH(C134,data!$F$4:$O$4,0))*(1+D134/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E135" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A135,data!$E$5:$E$21,0),MATCH(C135,data!$F$4:$O$4,0))*(1+D135/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E136" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A136,data!$E$5:$E$21,0),MATCH(C136,data!$F$4:$O$4,0))*(1+D136/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E137" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A137,data!$E$5:$E$21,0),MATCH(C137,data!$F$4:$O$4,0))*(1+D137/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E138" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A138,data!$E$5:$E$21,0),MATCH(C138,data!$F$4:$O$4,0))*(1+D138/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E139" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A139,data!$E$5:$E$21,0),MATCH(C139,data!$F$4:$O$4,0))*(1+D139/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E140" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A140,data!$E$5:$E$21,0),MATCH(C140,data!$F$4:$O$4,0))*(1+D140/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E141" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A141,data!$E$5:$E$21,0),MATCH(C141,data!$F$4:$O$4,0))*(1+D141/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E142" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A142,data!$E$5:$E$21,0),MATCH(C142,data!$F$4:$O$4,0))*(1+D142/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E143" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A143,data!$E$5:$E$21,0),MATCH(C143,data!$F$4:$O$4,0))*(1+D143/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E144" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A144,data!$E$5:$E$21,0),MATCH(C144,data!$F$4:$O$4,0))*(1+D144/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E145" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A145,data!$E$5:$E$21,0),MATCH(C145,data!$F$4:$O$4,0))*(1+D145/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A146,data!$E$5:$E$21,0),MATCH(C146,data!$F$4:$O$4,0))*(1+D146/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E147" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A147,data!$E$5:$E$21,0),MATCH(C147,data!$F$4:$O$4,0))*(1+D147/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E148" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A148,data!$E$5:$E$21,0),MATCH(C148,data!$F$4:$O$4,0))*(1+D148/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E149" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A149,data!$E$5:$E$21,0),MATCH(C149,data!$F$4:$O$4,0))*(1+D149/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E150" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A150,data!$E$5:$E$21,0),MATCH(C150,data!$F$4:$O$4,0))*(1+D150/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E151" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A151,data!$E$5:$E$21,0),MATCH(C151,data!$F$4:$O$4,0))*(1+D151/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E152" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A152,data!$E$5:$E$21,0),MATCH(C152,data!$F$4:$O$4,0))*(1+D152/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E153" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A153,data!$E$5:$E$21,0),MATCH(C153,data!$F$4:$O$4,0))*(1+D153/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E154" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A154,data!$E$5:$E$21,0),MATCH(C154,data!$F$4:$O$4,0))*(1+D154/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E155" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A155,data!$E$5:$E$21,0),MATCH(C155,data!$F$4:$O$4,0))*(1+D155/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E156" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A156,data!$E$5:$E$21,0),MATCH(C156,data!$F$4:$O$4,0))*(1+D156/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E157" s="1" t="str">
+        <f>IFERROR(INDEX(data!$F$5:$O$21,MATCH(A157,data!$E$5:$E$21,0),MATCH(C157,data!$F$4:$O$4,0))*(1+D157/100),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="1048544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A11:F1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>"a1&lt;&gt;"""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation errorStyle="information" showDropDown="1" showErrorMessage="1" errorTitle="Chưa nhap chuc danh" error="!" sqref="A12:A29" xr:uid="{3FEFB138-2EF8-40D8-AF46-DA1115D11A47}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Chưa nhap chuc danh" error="!" xr:uid="{6E9B728D-FE92-4EF3-AA94-63905A38AF2C}">
+          <x14:formula1>
+            <xm:f>data!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>B36:B1048576 A30:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" showDropDown="1" errorTitle="Chua nhap nguoi thuc hien" error="!" xr:uid="{6F58CECD-138B-4FCD-9138-B2F6EF459F00}">
+          <x14:formula1>
+            <xm:f>data!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12:B29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>